--- a/Table 1 Data.xlsx
+++ b/Table 1 Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorwang/Desktop/BST263/Group Project/bst263_finalproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEC5E9C-BBAD-AD40-948D-EF18AD00BDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E41BAB0-2C5A-8A4D-BF3A-696469A27411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="23980" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="23980" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Raw Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -532,8 +533,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,8 +548,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -572,7 +573,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -881,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FF9430-DFD0-5A48-92B8-A3F61F1A3483}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -949,7 +950,7 @@
         <v>535 (21.8%)</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1149,7 +1150,7 @@
         <v>224 (9.1%)</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1300,7 +1301,7 @@
         <v>224 (9.1%)</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1488,7 +1489,7 @@
         <v>44.16 (13.6)</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2044,6 +2045,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD495A2-14F0-374F-9DA2-B1B081EFC10E}">
+  <dimension ref="B2:G21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="180" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.1640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="10"/>
+      <c r="C2" s="6" t="str">
+        <f>'Raw Data'!L1</f>
+        <v>Full Data</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="str">
+        <f>'Raw Data'!M1</f>
+        <v>Training Data</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="str">
+        <f>'Raw Data'!N1</f>
+        <v>Test Data</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="8" t="str">
+        <f>'Raw Data'!L2</f>
+        <v>n = 12,243</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="str">
+        <f>'Raw Data'!M2</f>
+        <v>n =  9,794</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="str">
+        <f>'Raw Data'!N2</f>
+        <v>n = 2,449</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="19" t="str">
+        <f>'Raw Data'!L50</f>
+        <v>2,598 (21.2%)</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="str">
+        <f>'Raw Data'!M50</f>
+        <v>2,063 (21.1%)</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="str">
+        <f>'Raw Data'!N50</f>
+        <v>535 (21.8%)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>'Raw Data'!L3</f>
+        <v>60.87 (13.5)</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="str">
+        <f>'Raw Data'!M3</f>
+        <v>60.76 (13.5)</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="str">
+        <f>'Raw Data'!N3</f>
+        <v>61.30 (13.4)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f>'Raw Data'!L51</f>
+        <v>7,800 (63.7%)</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="str">
+        <f>'Raw Data'!M51</f>
+        <v>6,252 (63.8%)</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="str">
+        <f>'Raw Data'!N51</f>
+        <v>1,548 (63.2%)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f>'Raw Data'!L52</f>
+        <v>9,240 (75.5%)</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="str">
+        <f>'Raw Data'!M52</f>
+        <v>7,373 (75.3%)</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="str">
+        <f>'Raw Data'!N52</f>
+        <v>1,867 (76.2%)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f>'Raw Data'!L53</f>
+        <v>8,520 (69.6%)</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="str">
+        <f>'Raw Data'!M53</f>
+        <v>6,832 (69.8%)</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="str">
+        <f>'Raw Data'!N53</f>
+        <v>1,688 (68.9%)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>'Raw Data'!L4</f>
+        <v>6.24 (4.9)</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="str">
+        <f>'Raw Data'!M4</f>
+        <v>6.26 (5.0)</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="str">
+        <f>'Raw Data'!N4</f>
+        <v>6.14 (4.7)</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>'Raw Data'!L54</f>
+        <v>715 (5.8%)</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="str">
+        <f>'Raw Data'!M54</f>
+        <v>569 (5.8%)</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="str">
+        <f>'Raw Data'!N54</f>
+        <v>146 (6.0%)</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="str">
+        <f>'Raw Data'!K55</f>
+        <v>Discharge</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>'Raw Data'!L55</f>
+        <v>10,580 (86.4%)</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="str">
+        <f>'Raw Data'!M55</f>
+        <v>8,501 (86.8%)</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="str">
+        <f>'Raw Data'!N55</f>
+        <v>2,079 (84.9%)</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="str">
+        <f>'Raw Data'!K56</f>
+        <v>Expiry</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>'Raw Data'!L56</f>
+        <v>948 (7.7%)</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="str">
+        <f>'Raw Data'!M56</f>
+        <v>724 (7.4%)</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="str">
+        <f>'Raw Data'!N56</f>
+        <v>224 (9.1%)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f>'Raw Data'!L14</f>
+        <v>663 (5.4%)</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="str">
+        <f>'Raw Data'!M14</f>
+        <v>527 (5.4%)</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="str">
+        <f>'Raw Data'!N14</f>
+        <v>136 (5.6%)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f>'Raw Data'!L15</f>
+        <v>874 (7.1%)</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="str">
+        <f>'Raw Data'!M15</f>
+        <v>698 (7.1%)</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="str">
+        <f>'Raw Data'!N15</f>
+        <v>176 (7.2%)</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="17" t="str">
+        <f>'Raw Data'!L16</f>
+        <v>3,959 (32.3%)</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="str">
+        <f>'Raw Data'!M16</f>
+        <v>3,148 (32.1%)</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="str">
+        <f>'Raw Data'!N16</f>
+        <v>811 (33.1%)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
